--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +522,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.54409876194116</v>
+        <v>1.553094</v>
       </c>
       <c r="H2">
-        <v>1.54409876194116</v>
+        <v>4.659282</v>
       </c>
       <c r="I2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="J2">
-        <v>0.6870671618088775</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.5736130778327</v>
+        <v>1.036595333333333</v>
       </c>
       <c r="N2">
-        <v>1.5736130778327</v>
+        <v>3.109786</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.393072250513715</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.393072250513715</v>
       </c>
       <c r="Q2">
-        <v>2.42981400525589</v>
+        <v>1.609929992628</v>
       </c>
       <c r="R2">
-        <v>2.42981400525589</v>
+        <v>14.489369933652</v>
       </c>
       <c r="S2">
-        <v>0.6870671618088775</v>
+        <v>0.2696383641792664</v>
       </c>
       <c r="T2">
-        <v>0.6870671618088775</v>
+        <v>0.2696383641792664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,52 +587,176 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.703277983406312</v>
+        <v>1.553094</v>
       </c>
       <c r="H3">
-        <v>0.703277983406312</v>
+        <v>4.659282</v>
       </c>
       <c r="I3">
-        <v>0.3129328381911226</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="J3">
-        <v>0.3129328381911226</v>
+        <v>0.6859765954652609</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5736130778327</v>
+        <v>1.600567</v>
       </c>
       <c r="N3">
-        <v>1.5736130778327</v>
+        <v>4.801701</v>
       </c>
       <c r="O3">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="P3">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="Q3">
+        <v>2.485831004298</v>
+      </c>
+      <c r="R3">
+        <v>22.372479038682</v>
+      </c>
+      <c r="S3">
+        <v>0.4163382312859945</v>
+      </c>
+      <c r="T3">
+        <v>0.4163382312859945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="G4">
+        <v>0.7109686666666667</v>
+      </c>
+      <c r="H4">
+        <v>2.132906</v>
+      </c>
+      <c r="I4">
+        <v>0.314023404534739</v>
+      </c>
+      <c r="J4">
+        <v>0.314023404534739</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>1.036595333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.109786</v>
+      </c>
+      <c r="O4">
+        <v>0.393072250513715</v>
+      </c>
+      <c r="P4">
+        <v>0.393072250513715</v>
+      </c>
+      <c r="Q4">
+        <v>0.7369868020128889</v>
+      </c>
+      <c r="R4">
+        <v>6.632881218116001</v>
+      </c>
+      <c r="S4">
+        <v>0.1234338863344486</v>
+      </c>
+      <c r="T4">
+        <v>0.1234338863344486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1.106687432039981</v>
-      </c>
-      <c r="R3">
-        <v>1.106687432039981</v>
-      </c>
-      <c r="S3">
-        <v>0.3129328381911226</v>
-      </c>
-      <c r="T3">
-        <v>0.3129328381911226</v>
+      <c r="G5">
+        <v>0.7109686666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.132906</v>
+      </c>
+      <c r="I5">
+        <v>0.314023404534739</v>
+      </c>
+      <c r="J5">
+        <v>0.314023404534739</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.600567</v>
+      </c>
+      <c r="N5">
+        <v>4.801701</v>
+      </c>
+      <c r="O5">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="P5">
+        <v>0.6069277494862849</v>
+      </c>
+      <c r="Q5">
+        <v>1.137952985900667</v>
+      </c>
+      <c r="R5">
+        <v>10.241576873106</v>
+      </c>
+      <c r="S5">
+        <v>0.1905895182002904</v>
+      </c>
+      <c r="T5">
+        <v>0.1905895182002904</v>
       </c>
     </row>
   </sheetData>
